--- a/server/templates/template - Copy.xlsx
+++ b/server/templates/template - Copy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="789" activeTab="11"/>
+    <workbookView windowWidth="27945" windowHeight="11580" tabRatio="789" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="スタート" sheetId="9" r:id="rId1"/>
@@ -376,13 +376,13 @@
     <t>在庫</t>
   </si>
   <si>
-    <t>原価人１４</t>
+    <t>原価１４</t>
   </si>
   <si>
     <t>外注費</t>
   </si>
   <si>
-    <t>原価人１５</t>
+    <t>原価１５</t>
   </si>
   <si>
     <t>労務費</t>
@@ -391,7 +391,7 @@
     <t>超過手当</t>
   </si>
   <si>
-    <t>原価人１６</t>
+    <t>原価１６</t>
   </si>
   <si>
     <t>労務費内訳</t>
@@ -7203,9 +7203,14 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80c4c411-9b8f-44bb-a093-c5959731b008}" type="VALUE">
+                    <a:fld id="{d61f265c-7b2a-4edc-b10c-f8a864c1cf56}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
+                    <a:endParaRPr b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:cs typeface="+mn-ea"/>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8086,9 +8091,14 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1819dfde-566a-420a-a37a-11c5c0f975ed}" type="VALUE">
+                    <a:fld id="{7ec7cadf-7300-459e-a9ad-407de07cf0bf}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
+                    <a:endParaRPr b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:cs typeface="+mn-ea"/>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -12210,8 +12220,8 @@
   </sheetPr>
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09523809523809" defaultRowHeight="15" customHeight="1"/>
@@ -13606,7 +13616,7 @@
       <c r="E120" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mYCvsJziJAgqgQKarRQ7xm9W4wWhCPyxH+qMxwQlD3PhBfzzadDegzqlmu8DHpGjNCYdB5jaIuHIgQgdL9b+Gw==" saltValue="DVolfaYcp7NpIK3Fe4qE1A==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xakUIfUIBmHSpc0AiqOI2XvRElM2S2nsYjhn2e5nhlnzvleuWaHqdg8K44u8kXlz6R3rI3i5Dt6bvRL/LYWiRw==" saltValue="rqPjslEJuz4hjwV/7RKPfg==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
@@ -17300,7 +17310,7 @@
   </sheetPr>
   <dimension ref="A1:AB141"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
@@ -28197,8 +28207,8 @@
   </sheetPr>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -28622,7 +28632,7 @@
         <v>253</v>
       </c>
       <c r="L21" s="288">
-        <f>SUM(スタート!D43:D56)</f>
+        <f>SUM(スタート!D43:D58)</f>
         <v>0</v>
       </c>
       <c r="M21" s="11"/>
@@ -29055,7 +29065,7 @@
       <c r="N47" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tMjea2mKKCp7EHj/llV6dKoiR2OaangRaZxnxXbVd/kNkJXJEnBYL9sgPgzE6wwbBk98rn0jV/Y9eaVwfzg2aw==" saltValue="uzFtr6m4TRqdjOIY/pKdnA==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jCTyiv+wF/FOOWbsHqvFEs2hEFDTwRiyFvCRb+mrT2l1jQhoO5khtUFJqAya1pHYIyF9pVu6F2UFRrdd5Le1PA==" saltValue="toonn+zcEi0K5PciAmEQEw==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:H2"/>
